--- a/accessibility-results/LORENZ/LORENZ_accessibility_violations.xlsx
+++ b/accessibility-results/LORENZ/LORENZ_accessibility_violations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mgiesen/work/Acessibility Tool/axe-selenium-project/accessibility-results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mgiesen/work/Acessibility Tool/axe-selenium-project/accessibility-results/LORENZ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44A5188-1ACC-5340-A367-872789F4EBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07F1323-0B3E-C64D-81D7-03EB1E545B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-76800" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-76800" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
   <si>
     <t>URL</t>
   </si>
@@ -80,15 +80,6 @@
     <t>https://lorenz-snacks.de/impressum</t>
   </si>
   <si>
-    <t>https://lorenz-snacks.de/index.php/node/316</t>
-  </si>
-  <si>
-    <t>https://lorenz-snacks.de/index.php/node/319</t>
-  </si>
-  <si>
-    <t>https://lorenz-snacks.de/index.php/node/353</t>
-  </si>
-  <si>
     <t>https://lorenz-snacks.de/jobportal</t>
   </si>
   <si>
@@ -137,9 +128,6 @@
     <t>https://lorenz-snacks.de/nicnacs</t>
   </si>
   <si>
-    <t>https://lorenz-snacks.de/node/371</t>
-  </si>
-  <si>
     <t>https://lorenz-snacks.de/produkte</t>
   </si>
   <si>
@@ -159,9 +147,6 @@
   </si>
   <si>
     <t>https://lorenz-snacks.de/ueber-uns</t>
-  </si>
-  <si>
-    <t>aria-required-attr: 1, button-name: 2, color-contrast: 15, link-name: 1</t>
   </si>
   <si>
     <t>aria-required-attr: 1, button-name: 2, color-contrast: 15, link-name: 2</t>
@@ -322,7 +307,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -332,7 +317,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -340,6 +324,24 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -369,24 +371,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -401,10 +385,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AEDDB099-4BD8-AE43-8C0B-0858296F26F8}" name="Tabelle1" displayName="Tabelle1" ref="A1:D40" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2" tableBorderDxfId="3">
-  <autoFilter ref="A1:D40" xr:uid="{AEDDB099-4BD8-AE43-8C0B-0858296F26F8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AEDDB099-4BD8-AE43-8C0B-0858296F26F8}" name="Tabelle1" displayName="Tabelle1" ref="A1:D36" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
+  <autoFilter ref="A1:D36" xr:uid="{AEDDB099-4BD8-AE43-8C0B-0858296F26F8}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{54708969-16A4-F240-A2B5-DC9B1DAC1BF7}" name="URL" dataDxfId="1" dataCellStyle="Link"/>
+    <tableColumn id="1" xr3:uid="{54708969-16A4-F240-A2B5-DC9B1DAC1BF7}" name="URL" dataDxfId="0" dataCellStyle="Link"/>
     <tableColumn id="2" xr3:uid="{E418A2EA-D7D9-FC49-BD22-9C4B2EB4D3EF}" name="Total Violations"/>
     <tableColumn id="3" xr3:uid="{F4B79975-A48C-3A4E-AE46-703423EB4A65}" name="Total Node Violations"/>
     <tableColumn id="4" xr3:uid="{71A6CBFE-4808-914C-95D3-8A18DB1EB208}" name="Violation Breakdown"/>
@@ -700,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -730,35 +714,35 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>4</v>
       </c>
       <c r="C2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -767,96 +751,96 @@
         <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
       <c r="C9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
       <c r="C10">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -865,278 +849,278 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>4</v>
       </c>
       <c r="C15">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16">
         <v>4</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
       <c r="C17">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B18">
         <v>4</v>
       </c>
       <c r="C18">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B19">
         <v>4</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B21">
         <v>4</v>
       </c>
       <c r="C21">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C22">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B24">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C24">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C25">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30">
         <v>4</v>
       </c>
       <c r="C30">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B31">
         <v>4</v>
@@ -1145,178 +1129,118 @@
         <v>140</v>
       </c>
       <c r="D31" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B32">
         <v>4</v>
       </c>
       <c r="C32">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="D32" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C33">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B34">
         <v>4</v>
       </c>
       <c r="C34">
-        <v>140</v>
+        <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35">
-        <v>4</v>
-      </c>
-      <c r="C35">
-        <v>140</v>
-      </c>
-      <c r="D35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B36">
-        <v>4</v>
-      </c>
-      <c r="C36">
-        <v>42</v>
-      </c>
-      <c r="D36" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37">
-        <v>5</v>
-      </c>
-      <c r="C37">
-        <v>32</v>
-      </c>
-      <c r="D37" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38">
-        <v>4</v>
-      </c>
-      <c r="C38">
-        <v>33</v>
-      </c>
-      <c r="D38" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" s="3">
-        <v>4</v>
-      </c>
-      <c r="C39" s="3">
+      <c r="B35" s="3">
+        <v>4</v>
+      </c>
+      <c r="C35" s="3">
         <v>16</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="5"/>
-      <c r="B40" s="7">
-        <f>SUM(B2:B39)</f>
-        <v>163</v>
-      </c>
-      <c r="C40" s="8">
-        <f>SUM(C2:C39)</f>
-        <v>1907</v>
-      </c>
-      <c r="D40" s="6"/>
+      <c r="D35" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5"/>
+      <c r="B36" s="7">
+        <f>SUM(B2:B35)</f>
+        <v>147</v>
+      </c>
+      <c r="C36" s="7">
+        <f>SUM(C2:C35)</f>
+        <v>1831</v>
+      </c>
+      <c r="D36" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="A4" r:id="rId3" location="pos-1273" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="A39" r:id="rId5" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="A38" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="A37" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="A36" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="A35" r:id="rId9" location="pos-5802" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="A34" r:id="rId10" location="pos-5799" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="A33" r:id="rId11" location="pos-5795" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="A32" r:id="rId12" location="pos-5780" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="A31" r:id="rId13" location="pos-5468" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="A30" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="A29" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="A28" r:id="rId16" location="pos-4702" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="A27" r:id="rId17" location="pos-2246" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="A26" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="A25" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="A24" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="A23" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="A22" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="A21" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="A20" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="A19" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="A18" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="A17" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="A16" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="A15" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="A14" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="A13" r:id="rId31" location="pos-4782" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="A12" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="A11" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="A10" r:id="rId34" location="main-content" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="A9" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="A8" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="A7" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="A6" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="A3" r:id="rId2" location="pos-1273" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="A35" r:id="rId4" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="A34" r:id="rId5" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="A33" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="A32" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="A31" r:id="rId8" location="pos-5802" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="A30" r:id="rId9" location="pos-5799" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="A29" r:id="rId10" location="pos-5795" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="A28" r:id="rId11" location="pos-5780" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="A27" r:id="rId12" location="pos-5468" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="A26" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="A25" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="A24" r:id="rId15" location="pos-4702" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="A23" r:id="rId16" location="pos-2246" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="A22" r:id="rId17" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="A21" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="A20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="A19" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="A18" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="A17" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="A16" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="A15" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="A14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="A13" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="A12" r:id="rId27" location="pos-4782" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="A11" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="A10" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="A9" r:id="rId30" location="main-content" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="A8" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="A7" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="A6" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="A5" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId39"/>
+    <tablePart r:id="rId35"/>
   </tableParts>
 </worksheet>
 </file>